--- a/doc techniquev2/Plan_Adressage_ip.xlsx
+++ b/doc techniquev2/Plan_Adressage_ip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\travail\Ynov\Projet B3\doc technique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\travail\Ynov\Projet B3\github\infraProjetIntranet\doc techniquev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6B144-45E1-4CEF-A89F-EEC9B8275094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4582F06B-7FE8-4E95-A3C4-64B1840CFD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32870" yWindow="-690" windowWidth="28800" windowHeight="15440" xr2:uid="{BA5A4537-08DC-4692-B4CA-66169E76DEED}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{BA5A4537-08DC-4692-B4CA-66169E76DEED}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>PLAN d'adressage IP</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Commentaire</t>
-  </si>
-  <si>
-    <t>Windows serveur-2016</t>
   </si>
   <si>
     <t>VM-Windows serv 2016</t>
@@ -97,6 +94,27 @@
   </si>
   <si>
     <t>192.168.99.99</t>
+  </si>
+  <si>
+    <t>server-AD</t>
+  </si>
+  <si>
+    <t>Tnas</t>
+  </si>
+  <si>
+    <t>NAS</t>
+  </si>
+  <si>
+    <t>192.168.1.78</t>
+  </si>
+  <si>
+    <t>srvmail</t>
+  </si>
+  <si>
+    <t>192.168.10.5</t>
+  </si>
+  <si>
+    <t>Mail</t>
   </si>
 </sst>
 </file>
@@ -171,8 +189,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD19F291-5C7B-4668-BB46-EE421C5F3951}" name="Tableau1" displayName="Tableau1" ref="A5:E8" totalsRowShown="0">
-  <autoFilter ref="A5:E8" xr:uid="{FD19F291-5C7B-4668-BB46-EE421C5F3951}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD19F291-5C7B-4668-BB46-EE421C5F3951}" name="Tableau1" displayName="Tableau1" ref="A5:E10" totalsRowShown="0">
+  <autoFilter ref="A5:E10" xr:uid="{FD19F291-5C7B-4668-BB46-EE421C5F3951}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{20605D50-BD47-4A88-AC58-78F29611A216}" name="Hostname" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{423F87AA-B641-4015-8B65-74E0DB0B734E}" name="Device" dataDxfId="1"/>
@@ -481,17 +499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E491F89-0EFE-40BB-9804-8E74628C1E13}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -526,44 +544,72 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
